--- a/gt_mit_buttons/corrected task key for html.xlsx
+++ b/gt_mit_buttons/corrected task key for html.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sarah/Documents/Projekte/06_Heatmap-Studien/Studie 2/shiny approach/HeatmapStudy/gt_mit_buttons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F58F6F4-846C-3246-976F-D859AD039B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269A243-3487-FA4E-A753-DFB4A59E0C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3240" windowWidth="30000" windowHeight="15740" xr2:uid="{D4C68841-46F3-E542-833C-6357EAA9180A}"/>
+    <workbookView xWindow="5720" yWindow="5560" windowWidth="20600" windowHeight="15740" xr2:uid="{D4C68841-46F3-E542-833C-6357EAA9180A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>1_Konjunktiv_Formgleichheit</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Konjunktiv II bilden c)</t>
+  </si>
+  <si>
+    <t>Version 10.09.23</t>
   </si>
 </sst>
 </file>
@@ -223,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,13 +241,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757DAD3B-C1C5-C242-A7F7-B97DA6A1BA28}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +636,7 @@
       <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -705,7 +701,7 @@
       <c r="O3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -731,7 +727,6 @@
       <c r="K4" s="3"/>
       <c r="M4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H5" s="3"/>
@@ -740,7 +735,6 @@
       <c r="K5" s="3"/>
       <c r="M5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -752,7 +746,6 @@
       <c r="K6" s="3"/>
       <c r="M6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -800,7 +793,7 @@
       <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -865,7 +858,7 @@
       <c r="O8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -882,6 +875,11 @@
       </c>
       <c r="U8" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
